--- a/AllWriterValidUrl.xlsx
+++ b/AllWriterValidUrl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B770"/>
+  <dimension ref="A1:B863"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/59706</t>
+          <t>https://www.rokomari.com/book/author/9905</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/32376</t>
+          <t>https://www.rokomari.com/book/author/25305</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/62265</t>
+          <t>https://www.rokomari.com/book/author/4788</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/51589</t>
+          <t>https://www.rokomari.com/book/author/58543</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/24818</t>
+          <t>https://www.rokomari.com/book/author/40462</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/28150</t>
+          <t>https://www.rokomari.com/book/author/4155</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/51799</t>
+          <t>https://www.rokomari.com/book/author/42732</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/1412</t>
+          <t>https://www.rokomari.com/book/author/25836</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/55917</t>
+          <t>https://www.rokomari.com/book/author/9545</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/28258</t>
+          <t>https://www.rokomari.com/book/author/40632</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7815</t>
+          <t>https://www.rokomari.com/book/author/32749</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/783</t>
+          <t>https://www.rokomari.com/book/author/41002</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22805</t>
+          <t>https://www.rokomari.com/book/author/8274</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/69074</t>
+          <t>https://www.rokomari.com/book/author/44437</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/45834</t>
+          <t>https://www.rokomari.com/book/author/78195</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/76007</t>
+          <t>https://www.rokomari.com/book/author/7593</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77102</t>
+          <t>https://www.rokomari.com/book/author/83437</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/39996</t>
+          <t>https://www.rokomari.com/book/author/3592</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/69864</t>
+          <t>https://www.rokomari.com/book/author/76664</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/74654</t>
+          <t>https://www.rokomari.com/book/author/75045</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/72737</t>
+          <t>https://www.rokomari.com/book/author/59600</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13815</t>
+          <t>https://www.rokomari.com/book/author/2716</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/41301</t>
+          <t>https://www.rokomari.com/book/author/70266</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/53255</t>
+          <t>https://www.rokomari.com/book/author/22662</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/39814</t>
+          <t>https://www.rokomari.com/book/author/53140</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/60987</t>
+          <t>https://www.rokomari.com/book/author/66375</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/52086</t>
+          <t>https://www.rokomari.com/book/author/71880</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/82117</t>
+          <t>https://www.rokomari.com/book/author/4700</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/38331</t>
+          <t>https://www.rokomari.com/book/author/21145</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/82176</t>
+          <t>https://www.rokomari.com/book/author/68335</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/45189</t>
+          <t>https://www.rokomari.com/book/author/37822</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/70228</t>
+          <t>https://www.rokomari.com/book/author/72475</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/4928</t>
+          <t>https://www.rokomari.com/book/author/39837</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85053</t>
+          <t>https://www.rokomari.com/book/author/30623</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/47773</t>
+          <t>https://www.rokomari.com/book/author/62411</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81169</t>
+          <t>https://www.rokomari.com/book/author/9869</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/52989</t>
+          <t>https://www.rokomari.com/book/author/8870</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/70225</t>
+          <t>https://www.rokomari.com/book/author/10156</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77528</t>
+          <t>https://www.rokomari.com/book/author/9105</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/25064</t>
+          <t>https://www.rokomari.com/book/author/1163</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/64680</t>
+          <t>https://www.rokomari.com/book/author/80111</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/67889</t>
+          <t>https://www.rokomari.com/book/author/8035</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86085</t>
+          <t>https://www.rokomari.com/book/author/11726</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/78104</t>
+          <t>https://www.rokomari.com/book/author/4243</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/61365</t>
+          <t>https://www.rokomari.com/book/author/2468</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/78103</t>
+          <t>https://www.rokomari.com/book/author/269</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/76501</t>
+          <t>https://www.rokomari.com/book/author/56923</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/83842</t>
+          <t>https://www.rokomari.com/book/author/1808</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/83837</t>
+          <t>https://www.rokomari.com/book/author/86477</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22807</t>
+          <t>https://www.rokomari.com/book/author/74048</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77922</t>
+          <t>https://www.rokomari.com/book/author/76460</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77665</t>
+          <t>https://www.rokomari.com/book/author/37716</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2981</t>
+          <t>https://www.rokomari.com/book/author/84808</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/78835</t>
+          <t>https://www.rokomari.com/book/author/3873</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85487</t>
+          <t>https://www.rokomari.com/book/author/10413</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/72977</t>
+          <t>https://www.rokomari.com/book/author/26949</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/53352</t>
+          <t>https://www.rokomari.com/book/author/59151</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/87181</t>
+          <t>https://www.rokomari.com/book/author/73181</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77507</t>
+          <t>https://www.rokomari.com/book/author/6641</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85565</t>
+          <t>https://www.rokomari.com/book/author/86875</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/19234</t>
+          <t>https://www.rokomari.com/book/author/32038</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/37696</t>
+          <t>https://www.rokomari.com/book/author/65901</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85812</t>
+          <t>https://www.rokomari.com/book/author/13437</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85140</t>
+          <t>https://www.rokomari.com/book/author/78240</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/76881</t>
+          <t>https://www.rokomari.com/book/author/17508</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/72860</t>
+          <t>https://www.rokomari.com/book/author/42528</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/71123</t>
+          <t>https://www.rokomari.com/book/author/40767</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/78686</t>
+          <t>https://www.rokomari.com/book/author/79045</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/87583</t>
+          <t>https://www.rokomari.com/book/author/9893</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/42095</t>
+          <t>https://www.rokomari.com/book/author/24521</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/56668</t>
+          <t>https://www.rokomari.com/book/author/75963</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86204</t>
+          <t>https://www.rokomari.com/book/author/40624</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77619</t>
+          <t>https://www.rokomari.com/book/author/83652</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9313</t>
+          <t>https://www.rokomari.com/book/author/20302</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/45475</t>
+          <t>https://www.rokomari.com/book/author/83683</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/83176</t>
+          <t>https://www.rokomari.com/book/author/83469</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/58882</t>
+          <t>https://www.rokomari.com/book/author/1117</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/71464</t>
+          <t>https://www.rokomari.com/book/author/250</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/31847</t>
+          <t>https://www.rokomari.com/book/author/76064</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13490</t>
+          <t>https://www.rokomari.com/book/author/63570</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/75125</t>
+          <t>https://www.rokomari.com/book/author/3834</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22570</t>
+          <t>https://www.rokomari.com/book/author/21269</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/25442</t>
+          <t>https://www.rokomari.com/book/author/49294</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/71450</t>
+          <t>https://www.rokomari.com/book/author/61860</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/61862</t>
+          <t>https://www.rokomari.com/book/author/25156</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/3647</t>
+          <t>https://www.rokomari.com/book/author/11172</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/12589</t>
+          <t>https://www.rokomari.com/book/author/75306</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/46068</t>
+          <t>https://www.rokomari.com/book/author/74504</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/3319</t>
+          <t>https://www.rokomari.com/book/author/86944</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/31787</t>
+          <t>https://www.rokomari.com/book/author/86945</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/79409</t>
+          <t>https://www.rokomari.com/book/author/86946</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/70199</t>
+          <t>https://www.rokomari.com/book/author/167</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/3227</t>
+          <t>https://www.rokomari.com/book/author/10574</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77008</t>
+          <t>https://www.rokomari.com/book/author/25814</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/12683</t>
+          <t>https://www.rokomari.com/book/author/29739</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/59500</t>
+          <t>https://www.rokomari.com/book/author/12300</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/12933</t>
+          <t>https://www.rokomari.com/book/author/13646</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/45817</t>
+          <t>https://www.rokomari.com/book/author/40424</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/8344</t>
+          <t>https://www.rokomari.com/book/author/77844</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/5950</t>
+          <t>https://www.rokomari.com/book/author/72861</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/87554</t>
+          <t>https://www.rokomari.com/book/author/87430</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13494</t>
+          <t>https://www.rokomari.com/book/author/71149</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/48412</t>
+          <t>https://www.rokomari.com/book/author/83203</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/53102</t>
+          <t>https://www.rokomari.com/book/author/81815</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/87342</t>
+          <t>https://www.rokomari.com/book/author/78242</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/41375</t>
+          <t>https://www.rokomari.com/book/author/35605</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13812</t>
+          <t>https://www.rokomari.com/book/author/80393</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9873</t>
+          <t>https://www.rokomari.com/book/author/35587</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/4676</t>
+          <t>https://www.rokomari.com/book/author/81243</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/12718</t>
+          <t>https://www.rokomari.com/book/author/68897</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/82639</t>
+          <t>https://www.rokomari.com/book/author/67221</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81117</t>
+          <t>https://www.rokomari.com/book/author/8068</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/44219</t>
+          <t>https://www.rokomari.com/book/author/34115</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/24171</t>
+          <t>https://www.rokomari.com/book/author/60417</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/35394</t>
+          <t>https://www.rokomari.com/book/author/44667</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85222</t>
+          <t>https://www.rokomari.com/book/author/76963</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/23349</t>
+          <t>https://www.rokomari.com/book/author/35614</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/49064</t>
+          <t>https://www.rokomari.com/book/author/78598</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7769</t>
+          <t>https://www.rokomari.com/book/author/87395</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/65530</t>
+          <t>https://www.rokomari.com/book/author/44668</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13404</t>
+          <t>https://www.rokomari.com/book/author/83208</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/10613</t>
+          <t>https://www.rokomari.com/book/author/23225</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9983</t>
+          <t>https://www.rokomari.com/book/author/7423</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/42080</t>
+          <t>https://www.rokomari.com/book/author/87006</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/34553</t>
+          <t>https://www.rokomari.com/book/author/55824</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/11233</t>
+          <t>https://www.rokomari.com/book/author/24860</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/21199</t>
+          <t>https://www.rokomari.com/book/author/78290</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/6852</t>
+          <t>https://www.rokomari.com/book/author/11417</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9949</t>
+          <t>https://www.rokomari.com/book/author/27217</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/68953</t>
+          <t>https://www.rokomari.com/book/author/86773</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/8020</t>
+          <t>https://www.rokomari.com/book/author/80238</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/62684</t>
+          <t>https://www.rokomari.com/book/author/75218</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9974</t>
+          <t>https://www.rokomari.com/book/author/83516</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/4872</t>
+          <t>https://www.rokomari.com/book/author/78058</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9975</t>
+          <t>https://www.rokomari.com/book/author/84450</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/83737</t>
+          <t>https://www.rokomari.com/book/author/71202</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2394</t>
+          <t>https://www.rokomari.com/book/author/29575</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/10077</t>
+          <t>https://www.rokomari.com/book/author/7674</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/23543</t>
+          <t>https://www.rokomari.com/book/author/45511</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2085</t>
+          <t>https://www.rokomari.com/book/author/17535</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/82539</t>
+          <t>https://www.rokomari.com/book/author/24719</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/82522</t>
+          <t>https://www.rokomari.com/book/author/27653</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/82538</t>
+          <t>https://www.rokomari.com/book/author/75676</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/69429</t>
+          <t>https://www.rokomari.com/book/author/27477</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/42183</t>
+          <t>https://www.rokomari.com/book/author/42096</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/6829</t>
+          <t>https://www.rokomari.com/book/author/26319</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13446</t>
+          <t>https://www.rokomari.com/book/author/79458</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/35331</t>
+          <t>https://www.rokomari.com/book/author/63505</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/12312</t>
+          <t>https://www.rokomari.com/book/author/39085</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/31274</t>
+          <t>https://www.rokomari.com/book/author/24819</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/78747</t>
+          <t>https://www.rokomari.com/book/author/78922</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/41989</t>
+          <t>https://www.rokomari.com/book/author/6504</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/70323</t>
+          <t>https://www.rokomari.com/book/author/67735</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/75589</t>
+          <t>https://www.rokomari.com/book/author/34111</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/12160</t>
+          <t>https://www.rokomari.com/book/author/3022</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81589</t>
+          <t>https://www.rokomari.com/book/author/62719</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/61616</t>
+          <t>https://www.rokomari.com/book/author/27066</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/79565</t>
+          <t>https://www.rokomari.com/book/author/12140</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2434</t>
+          <t>https://www.rokomari.com/book/author/54469</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9874</t>
+          <t>https://www.rokomari.com/book/author/12141</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/82431</t>
+          <t>https://www.rokomari.com/book/author/7718</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/60584</t>
+          <t>https://www.rokomari.com/book/author/87579</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86366</t>
+          <t>https://www.rokomari.com/book/author/15127</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/32167</t>
+          <t>https://www.rokomari.com/book/author/8402</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77550</t>
+          <t>https://www.rokomari.com/book/author/78027</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81636</t>
+          <t>https://www.rokomari.com/book/author/27918</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86673</t>
+          <t>https://www.rokomari.com/book/author/64260</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/84960</t>
+          <t>https://www.rokomari.com/book/author/11515</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/8996</t>
+          <t>https://www.rokomari.com/book/author/6510</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9005</t>
+          <t>https://www.rokomari.com/book/author/52823</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/1388</t>
+          <t>https://www.rokomari.com/book/author/73283</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/32816</t>
+          <t>https://www.rokomari.com/book/author/67872</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9773</t>
+          <t>https://www.rokomari.com/book/author/72245</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/32938</t>
+          <t>https://www.rokomari.com/book/author/67736</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/3775</t>
+          <t>https://www.rokomari.com/book/author/26688</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/57896</t>
+          <t>https://www.rokomari.com/book/author/20655</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/39779</t>
+          <t>https://www.rokomari.com/book/author/71234</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/5351</t>
+          <t>https://www.rokomari.com/book/author/77007</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86555</t>
+          <t>https://www.rokomari.com/book/author/11162</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/5192</t>
+          <t>https://www.rokomari.com/book/author/35129</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13441</t>
+          <t>https://www.rokomari.com/book/author/84148</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2867</t>
+          <t>https://www.rokomari.com/book/author/60046</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/63251</t>
+          <t>https://www.rokomari.com/book/author/87716</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81366</t>
+          <t>https://www.rokomari.com/book/author/62466</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/70173</t>
+          <t>https://www.rokomari.com/book/author/47834</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85070</t>
+          <t>https://www.rokomari.com/book/author/71014</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/28310</t>
+          <t>https://www.rokomari.com/book/author/58270</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/75122</t>
+          <t>https://www.rokomari.com/book/author/77208</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/70481</t>
+          <t>https://www.rokomari.com/book/author/258</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22288</t>
+          <t>https://www.rokomari.com/book/author/254</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/52047</t>
+          <t>https://www.rokomari.com/book/author/25253</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22256</t>
+          <t>https://www.rokomari.com/book/author/47075</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/37787</t>
+          <t>https://www.rokomari.com/book/author/75041</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/14050</t>
+          <t>https://www.rokomari.com/book/author/11779</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/26354</t>
+          <t>https://www.rokomari.com/book/author/44104</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/74552</t>
+          <t>https://www.rokomari.com/book/author/78649</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/76414</t>
+          <t>https://www.rokomari.com/book/author/24122</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/60697</t>
+          <t>https://www.rokomari.com/book/author/84567</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/80634</t>
+          <t>https://www.rokomari.com/book/author/41594</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/27256</t>
+          <t>https://www.rokomari.com/book/author/73609</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7072</t>
+          <t>https://www.rokomari.com/book/author/11147</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/33431</t>
+          <t>https://www.rokomari.com/book/author/20134</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/65899</t>
+          <t>https://www.rokomari.com/book/author/36653</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/72205</t>
+          <t>https://www.rokomari.com/book/author/21362</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/68712</t>
+          <t>https://www.rokomari.com/book/author/79375</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81932</t>
+          <t>https://www.rokomari.com/book/author/950</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/8350</t>
+          <t>https://www.rokomari.com/book/author/67737</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/10933</t>
+          <t>https://www.rokomari.com/book/author/72967</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/87122</t>
+          <t>https://www.rokomari.com/book/author/77217</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/4544</t>
+          <t>https://www.rokomari.com/book/author/71313</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/32842</t>
+          <t>https://www.rokomari.com/book/author/71908</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/6508</t>
+          <t>https://www.rokomari.com/book/author/54079</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/73040</t>
+          <t>https://www.rokomari.com/book/author/36454</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/75486</t>
+          <t>https://www.rokomari.com/book/author/60124</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22487</t>
+          <t>https://www.rokomari.com/book/author/3712</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/79024</t>
+          <t>https://www.rokomari.com/book/author/77993</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/70318</t>
+          <t>https://www.rokomari.com/book/author/33079</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/83583</t>
+          <t>https://www.rokomari.com/book/author/49141</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/33214</t>
+          <t>https://www.rokomari.com/book/author/55433</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9593</t>
+          <t>https://www.rokomari.com/book/author/55434</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77738</t>
+          <t>https://www.rokomari.com/book/author/50495</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13020</t>
+          <t>https://www.rokomari.com/book/author/78600</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/1476</t>
+          <t>https://www.rokomari.com/book/author/14187</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/30636</t>
+          <t>https://www.rokomari.com/book/author/26519</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/10228</t>
+          <t>https://www.rokomari.com/book/author/31227</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/60595</t>
+          <t>https://www.rokomari.com/book/author/12548</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/6261</t>
+          <t>https://www.rokomari.com/book/author/82985</t>
         </is>
       </c>
     </row>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/53677</t>
+          <t>https://www.rokomari.com/book/author/52780</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/58599</t>
+          <t>https://www.rokomari.com/book/author/7650</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/72425</t>
+          <t>https://www.rokomari.com/book/author/26417</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/83245</t>
+          <t>https://www.rokomari.com/book/author/20766</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/6989</t>
+          <t>https://www.rokomari.com/book/author/32824</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/20299</t>
+          <t>https://www.rokomari.com/book/author/80988</t>
         </is>
       </c>
     </row>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86435</t>
+          <t>https://www.rokomari.com/book/author/71127</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7817</t>
+          <t>https://www.rokomari.com/book/author/20217</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22681</t>
+          <t>https://www.rokomari.com/book/author/33735</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/60362</t>
+          <t>https://www.rokomari.com/book/author/45894</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/52100</t>
+          <t>https://www.rokomari.com/book/author/62914</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/72624</t>
+          <t>https://www.rokomari.com/book/author/64196</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/35250</t>
+          <t>https://www.rokomari.com/book/author/61957</t>
         </is>
       </c>
     </row>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/72881</t>
+          <t>https://www.rokomari.com/book/author/48836</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/32851</t>
+          <t>https://www.rokomari.com/book/author/33441</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/80436</t>
+          <t>https://www.rokomari.com/book/author/63072</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22010</t>
+          <t>https://www.rokomari.com/book/author/42645</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/57550</t>
+          <t>https://www.rokomari.com/book/author/34639</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/79140</t>
+          <t>https://www.rokomari.com/book/author/34148</t>
         </is>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/8955</t>
+          <t>https://www.rokomari.com/book/author/48917</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/73627</t>
+          <t>https://www.rokomari.com/book/author/66687</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81953</t>
+          <t>https://www.rokomari.com/book/author/42199</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86065</t>
+          <t>https://www.rokomari.com/book/author/3322</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/41488</t>
+          <t>https://www.rokomari.com/book/author/33938</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7178</t>
+          <t>https://www.rokomari.com/book/author/84653</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/26735</t>
+          <t>https://www.rokomari.com/book/author/37983</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/56669</t>
+          <t>https://www.rokomari.com/book/author/49781</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/47709</t>
+          <t>https://www.rokomari.com/book/author/43437</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/69587</t>
+          <t>https://www.rokomari.com/book/author/62458</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/3447</t>
+          <t>https://www.rokomari.com/book/author/62321</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/72535</t>
+          <t>https://www.rokomari.com/book/author/16341</t>
         </is>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/58456</t>
+          <t>https://www.rokomari.com/book/author/70340</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/47774</t>
+          <t>https://www.rokomari.com/book/author/19140</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81903</t>
+          <t>https://www.rokomari.com/book/author/69175</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/82571</t>
+          <t>https://www.rokomari.com/book/author/58748</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/8575</t>
+          <t>https://www.rokomari.com/book/author/19991</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/10510</t>
+          <t>https://www.rokomari.com/book/author/45183</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2984</t>
+          <t>https://www.rokomari.com/book/author/37982</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/62148</t>
+          <t>https://www.rokomari.com/book/author/22986</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/79187</t>
+          <t>https://www.rokomari.com/book/author/59185</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/5016</t>
+          <t>https://www.rokomari.com/book/author/66391</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/33532</t>
+          <t>https://www.rokomari.com/book/author/15975</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/70967</t>
+          <t>https://www.rokomari.com/book/author/71385</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/5206</t>
+          <t>https://www.rokomari.com/book/author/59943</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/76780</t>
+          <t>https://www.rokomari.com/book/author/30048</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/68823</t>
+          <t>https://www.rokomari.com/book/author/10478</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/31780</t>
+          <t>https://www.rokomari.com/book/author/39554</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9030</t>
+          <t>https://www.rokomari.com/book/author/71374</t>
         </is>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/36333</t>
+          <t>https://www.rokomari.com/book/author/15595</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/76552</t>
+          <t>https://www.rokomari.com/book/author/56530</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2249</t>
+          <t>https://www.rokomari.com/book/author/57638</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/243</t>
+          <t>https://www.rokomari.com/book/author/66294</t>
         </is>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/26710</t>
+          <t>https://www.rokomari.com/book/author/37385</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13428</t>
+          <t>https://www.rokomari.com/book/author/75818</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/87078</t>
+          <t>https://www.rokomari.com/book/author/77668</t>
         </is>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/71462</t>
+          <t>https://www.rokomari.com/book/author/36940</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/87730</t>
+          <t>https://www.rokomari.com/book/author/61338</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/59304</t>
+          <t>https://www.rokomari.com/book/author/47688</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22062</t>
+          <t>https://www.rokomari.com/book/author/69176</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/3106</t>
+          <t>https://www.rokomari.com/book/author/48552</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/31729</t>
+          <t>https://www.rokomari.com/book/author/15245</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/49411</t>
+          <t>https://www.rokomari.com/book/author/51635</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/20586</t>
+          <t>https://www.rokomari.com/book/author/16546</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/60604</t>
+          <t>https://www.rokomari.com/book/author/14571</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/40852</t>
+          <t>https://www.rokomari.com/book/author/14211</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/35463</t>
+          <t>https://www.rokomari.com/book/author/3180</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/26664</t>
+          <t>https://www.rokomari.com/book/author/49747</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/54671</t>
+          <t>https://www.rokomari.com/book/author/27179</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/75702</t>
+          <t>https://www.rokomari.com/book/author/29565</t>
         </is>
       </c>
     </row>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/68591</t>
+          <t>https://www.rokomari.com/book/author/77545</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/20708</t>
+          <t>https://www.rokomari.com/book/author/20795</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2946</t>
+          <t>https://www.rokomari.com/book/author/84101</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/4648</t>
+          <t>https://www.rokomari.com/book/author/48981</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/31695</t>
+          <t>https://www.rokomari.com/book/author/63437</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/31802</t>
+          <t>https://www.rokomari.com/book/author/80007</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/71442</t>
+          <t>https://www.rokomari.com/book/author/61676</t>
         </is>
       </c>
     </row>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/69101</t>
+          <t>https://www.rokomari.com/book/author/66885</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/39292</t>
+          <t>https://www.rokomari.com/book/author/83874</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/12516</t>
+          <t>https://www.rokomari.com/book/author/45407</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/47054</t>
+          <t>https://www.rokomari.com/book/author/35085</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13689</t>
+          <t>https://www.rokomari.com/book/author/34091</t>
         </is>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/26147</t>
+          <t>https://www.rokomari.com/book/author/73097</t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13550</t>
+          <t>https://www.rokomari.com/book/author/16958</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/38562</t>
+          <t>https://www.rokomari.com/book/author/42113</t>
         </is>
       </c>
     </row>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/41333</t>
+          <t>https://www.rokomari.com/book/author/74692</t>
         </is>
       </c>
     </row>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/70904</t>
+          <t>https://www.rokomari.com/book/author/64195</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/55037</t>
+          <t>https://www.rokomari.com/book/author/64293</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/48662</t>
+          <t>https://www.rokomari.com/book/author/22571</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/25799</t>
+          <t>https://www.rokomari.com/book/author/11635</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/71117</t>
+          <t>https://www.rokomari.com/book/author/37657</t>
         </is>
       </c>
     </row>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/1963</t>
+          <t>https://www.rokomari.com/book/author/56917</t>
         </is>
       </c>
     </row>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/75988</t>
+          <t>https://www.rokomari.com/book/author/43448</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/20337</t>
+          <t>https://www.rokomari.com/book/author/62478</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/82627</t>
+          <t>https://www.rokomari.com/book/author/2290</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/75054</t>
+          <t>https://www.rokomari.com/book/author/37872</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86803</t>
+          <t>https://www.rokomari.com/book/author/77596</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/45773</t>
+          <t>https://www.rokomari.com/book/author/36448</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/68577</t>
+          <t>https://www.rokomari.com/book/author/45217</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/50482</t>
+          <t>https://www.rokomari.com/book/author/64311</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/83134</t>
+          <t>https://www.rokomari.com/book/author/35080</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/80172</t>
+          <t>https://www.rokomari.com/book/author/45068</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/59578</t>
+          <t>https://www.rokomari.com/book/author/50153</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/25394</t>
+          <t>https://www.rokomari.com/book/author/50026</t>
         </is>
       </c>
     </row>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/78625</t>
+          <t>https://www.rokomari.com/book/author/50121</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/249</t>
+          <t>https://www.rokomari.com/book/author/35905</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13899</t>
+          <t>https://www.rokomari.com/book/author/64306</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85558</t>
+          <t>https://www.rokomari.com/book/author/66529</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22568</t>
+          <t>https://www.rokomari.com/book/author/61587</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/1602</t>
+          <t>https://www.rokomari.com/book/author/67362</t>
         </is>
       </c>
     </row>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/24949</t>
+          <t>https://www.rokomari.com/book/author/46706</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/12657</t>
+          <t>https://www.rokomari.com/book/author/19175</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9213</t>
+          <t>https://www.rokomari.com/book/author/18802</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77473</t>
+          <t>https://www.rokomari.com/book/author/27139</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/41174</t>
+          <t>https://www.rokomari.com/book/author/41907</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/79346</t>
+          <t>https://www.rokomari.com/book/author/83921</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/33423</t>
+          <t>https://www.rokomari.com/book/author/64243</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/11430</t>
+          <t>https://www.rokomari.com/book/author/68614</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/40000</t>
+          <t>https://www.rokomari.com/book/author/87201</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77435</t>
+          <t>https://www.rokomari.com/book/author/66330</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/56622</t>
+          <t>https://www.rokomari.com/book/author/63482</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/10110</t>
+          <t>https://www.rokomari.com/book/author/64955</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85706</t>
+          <t>https://www.rokomari.com/book/author/35446</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/74794</t>
+          <t>https://www.rokomari.com/book/author/83952</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/84804</t>
+          <t>https://www.rokomari.com/book/author/38555</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81294</t>
+          <t>https://www.rokomari.com/book/author/38556</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/53149</t>
+          <t>https://www.rokomari.com/book/author/36449</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/61200</t>
+          <t>https://www.rokomari.com/book/author/17286</t>
         </is>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/8971</t>
+          <t>https://www.rokomari.com/book/author/46254</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/70454</t>
+          <t>https://www.rokomari.com/book/author/55539</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/984</t>
+          <t>https://www.rokomari.com/book/author/84676</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/6321</t>
+          <t>https://www.rokomari.com/book/author/29570</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/76496</t>
+          <t>https://www.rokomari.com/book/author/42393</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/5993</t>
+          <t>https://www.rokomari.com/book/author/34089</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/78282</t>
+          <t>https://www.rokomari.com/book/author/81827</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77896</t>
+          <t>https://www.rokomari.com/book/author/28702</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/31299</t>
+          <t>https://www.rokomari.com/book/author/31655</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/8324</t>
+          <t>https://www.rokomari.com/book/author/46233</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/53800</t>
+          <t>https://www.rokomari.com/book/author/17029</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7356</t>
+          <t>https://www.rokomari.com/book/author/63203</t>
         </is>
       </c>
     </row>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2836</t>
+          <t>https://www.rokomari.com/book/author/64971</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2685</t>
+          <t>https://www.rokomari.com/book/author/45234</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/83393</t>
+          <t>https://www.rokomari.com/book/author/63506</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/31108</t>
+          <t>https://www.rokomari.com/book/author/47410</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/5767</t>
+          <t>https://www.rokomari.com/book/author/44752</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/58893</t>
+          <t>https://www.rokomari.com/book/author/46862</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/39457</t>
+          <t>https://www.rokomari.com/book/author/37004</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/11140</t>
+          <t>https://www.rokomari.com/book/author/45691</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/65672</t>
+          <t>https://www.rokomari.com/book/author/50669</t>
         </is>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/65624</t>
+          <t>https://www.rokomari.com/book/author/66530</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/10113</t>
+          <t>https://www.rokomari.com/book/author/59625</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/40193</t>
+          <t>https://www.rokomari.com/book/author/55625</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/87688</t>
+          <t>https://www.rokomari.com/book/author/10640</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/59331</t>
+          <t>https://www.rokomari.com/book/author/34745</t>
         </is>
       </c>
     </row>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/17545</t>
+          <t>https://www.rokomari.com/book/author/68213</t>
         </is>
       </c>
     </row>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/72741</t>
+          <t>https://www.rokomari.com/book/author/60869</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/74304</t>
+          <t>https://www.rokomari.com/book/author/69399</t>
         </is>
       </c>
     </row>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/80917</t>
+          <t>https://www.rokomari.com/book/author/56504</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/11626</t>
+          <t>https://www.rokomari.com/book/author/41777</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/26700</t>
+          <t>https://www.rokomari.com/book/author/87178</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/31070</t>
+          <t>https://www.rokomari.com/book/author/36937</t>
         </is>
       </c>
     </row>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/35050</t>
+          <t>https://www.rokomari.com/book/author/50265</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/33585</t>
+          <t>https://www.rokomari.com/book/author/74695</t>
         </is>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/20258</t>
+          <t>https://www.rokomari.com/book/author/30835</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86360</t>
+          <t>https://www.rokomari.com/book/author/44926</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9251</t>
+          <t>https://www.rokomari.com/book/author/6781</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7309</t>
+          <t>https://www.rokomari.com/book/author/59290</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7638</t>
+          <t>https://www.rokomari.com/book/author/48638</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9423</t>
+          <t>https://www.rokomari.com/book/author/61972</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/14413</t>
+          <t>https://www.rokomari.com/book/author/27186</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/53970</t>
+          <t>https://www.rokomari.com/book/author/62502</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/82665</t>
+          <t>https://www.rokomari.com/book/author/28592</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/72533</t>
+          <t>https://www.rokomari.com/book/author/16240</t>
         </is>
       </c>
     </row>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7716</t>
+          <t>https://www.rokomari.com/book/author/17198</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/41724</t>
+          <t>https://www.rokomari.com/book/author/29636</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2204</t>
+          <t>https://www.rokomari.com/book/author/35101</t>
         </is>
       </c>
     </row>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/64014</t>
+          <t>https://www.rokomari.com/book/author/49808</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/47509</t>
+          <t>https://www.rokomari.com/book/author/66746</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/70829</t>
+          <t>https://www.rokomari.com/book/author/41242</t>
         </is>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/68724</t>
+          <t>https://www.rokomari.com/book/author/50008</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/73474</t>
+          <t>https://www.rokomari.com/book/author/38261</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/41018</t>
+          <t>https://www.rokomari.com/book/author/63765</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/25248</t>
+          <t>https://www.rokomari.com/book/author/43001</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2135</t>
+          <t>https://www.rokomari.com/book/author/71472</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/78273</t>
+          <t>https://www.rokomari.com/book/author/19002</t>
         </is>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9019</t>
+          <t>https://www.rokomari.com/book/author/78937</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9852</t>
+          <t>https://www.rokomari.com/book/author/56697</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/30658</t>
+          <t>https://www.rokomari.com/book/author/37601</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/10121</t>
+          <t>https://www.rokomari.com/book/author/58966</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/61102</t>
+          <t>https://www.rokomari.com/book/author/48573</t>
         </is>
       </c>
     </row>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7996</t>
+          <t>https://www.rokomari.com/book/author/49828</t>
         </is>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86612</t>
+          <t>https://www.rokomari.com/book/author/3266</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/56956</t>
+          <t>https://www.rokomari.com/book/author/48623</t>
         </is>
       </c>
     </row>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/61838</t>
+          <t>https://www.rokomari.com/book/author/73521</t>
         </is>
       </c>
     </row>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/60885</t>
+          <t>https://www.rokomari.com/book/author/67262</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7994</t>
+          <t>https://www.rokomari.com/book/author/62486</t>
         </is>
       </c>
     </row>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/84844</t>
+          <t>https://www.rokomari.com/book/author/37384</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7542</t>
+          <t>https://www.rokomari.com/book/author/39521</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/60804</t>
+          <t>https://www.rokomari.com/book/author/56286</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/24915</t>
+          <t>https://www.rokomari.com/book/author/45105</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/4090</t>
+          <t>https://www.rokomari.com/book/author/23045</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/8064</t>
+          <t>https://www.rokomari.com/book/author/45542</t>
         </is>
       </c>
     </row>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/80638</t>
+          <t>https://www.rokomari.com/book/author/51601</t>
         </is>
       </c>
     </row>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22747</t>
+          <t>https://www.rokomari.com/book/author/43612</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/84947</t>
+          <t>https://www.rokomari.com/book/author/15334</t>
         </is>
       </c>
     </row>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/60297</t>
+          <t>https://www.rokomari.com/book/author/57108</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/40126</t>
+          <t>https://www.rokomari.com/book/author/58389</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/26698</t>
+          <t>https://www.rokomari.com/book/author/64956</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/25084</t>
+          <t>https://www.rokomari.com/book/author/39540</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/10262</t>
+          <t>https://www.rokomari.com/book/author/29477</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/48817</t>
+          <t>https://www.rokomari.com/book/author/36442</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/69515</t>
+          <t>https://www.rokomari.com/book/author/36439</t>
         </is>
       </c>
     </row>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/58898</t>
+          <t>https://www.rokomari.com/book/author/61475</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/72071</t>
+          <t>https://www.rokomari.com/book/author/64350</t>
         </is>
       </c>
     </row>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/83711</t>
+          <t>https://www.rokomari.com/book/author/31944</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/24841</t>
+          <t>https://www.rokomari.com/book/author/37977</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/40400</t>
+          <t>https://www.rokomari.com/book/author/58001</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/60772</t>
+          <t>https://www.rokomari.com/book/author/62974</t>
         </is>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/21829</t>
+          <t>https://www.rokomari.com/book/author/43019</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/1346</t>
+          <t>https://www.rokomari.com/book/author/36192</t>
         </is>
       </c>
     </row>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85099</t>
+          <t>https://www.rokomari.com/book/author/39590</t>
         </is>
       </c>
     </row>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/11599</t>
+          <t>https://www.rokomari.com/book/author/63800</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/1343</t>
+          <t>https://www.rokomari.com/book/author/85624</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/11623</t>
+          <t>https://www.rokomari.com/book/author/38547</t>
         </is>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/76590</t>
+          <t>https://www.rokomari.com/book/author/33960</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/58193</t>
+          <t>https://www.rokomari.com/book/author/64405</t>
         </is>
       </c>
     </row>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22640</t>
+          <t>https://www.rokomari.com/book/author/44814</t>
         </is>
       </c>
     </row>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/279</t>
+          <t>https://www.rokomari.com/book/author/38548</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/55039</t>
+          <t>https://www.rokomari.com/book/author/38779</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/34515</t>
+          <t>https://www.rokomari.com/book/author/62963</t>
         </is>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/37659</t>
+          <t>https://www.rokomari.com/book/author/38790</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/79397</t>
+          <t>https://www.rokomari.com/book/author/39338</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81749</t>
+          <t>https://www.rokomari.com/book/author/29696</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/39594</t>
+          <t>https://www.rokomari.com/book/author/68238</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/20549</t>
+          <t>https://www.rokomari.com/book/author/61655</t>
         </is>
       </c>
     </row>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81872</t>
+          <t>https://www.rokomari.com/book/author/64547</t>
         </is>
       </c>
     </row>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22601</t>
+          <t>https://www.rokomari.com/book/author/62991</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2905</t>
+          <t>https://www.rokomari.com/book/author/64963</t>
         </is>
       </c>
     </row>
@@ -5086,7 +5086,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77394</t>
+          <t>https://www.rokomari.com/book/author/39289</t>
         </is>
       </c>
     </row>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/40477</t>
+          <t>https://www.rokomari.com/book/author/35012</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/43177</t>
+          <t>https://www.rokomari.com/book/author/34509</t>
         </is>
       </c>
     </row>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9926</t>
+          <t>https://www.rokomari.com/book/author/79709</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/4151</t>
+          <t>https://www.rokomari.com/book/author/62933</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/80011</t>
+          <t>https://www.rokomari.com/book/author/21231</t>
         </is>
       </c>
     </row>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/23088</t>
+          <t>https://www.rokomari.com/book/author/62396</t>
         </is>
       </c>
     </row>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/12153</t>
+          <t>https://www.rokomari.com/book/author/84006</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/62412</t>
+          <t>https://www.rokomari.com/book/author/35270</t>
         </is>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/75962</t>
+          <t>https://www.rokomari.com/book/author/78097</t>
         </is>
       </c>
     </row>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/41319</t>
+          <t>https://www.rokomari.com/book/author/64964</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22740</t>
+          <t>https://www.rokomari.com/book/author/71494</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/57047</t>
+          <t>https://www.rokomari.com/book/author/27273</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/8234</t>
+          <t>https://www.rokomari.com/book/author/62915</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/73874</t>
+          <t>https://www.rokomari.com/book/author/29854</t>
         </is>
       </c>
     </row>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2851</t>
+          <t>https://www.rokomari.com/book/author/74649</t>
         </is>
       </c>
     </row>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/53379</t>
+          <t>https://www.rokomari.com/book/author/34823</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/36553</t>
+          <t>https://www.rokomari.com/book/author/25130</t>
         </is>
       </c>
     </row>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/72401</t>
+          <t>https://www.rokomari.com/book/author/56662</t>
         </is>
       </c>
     </row>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/20516</t>
+          <t>https://www.rokomari.com/book/author/69798</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/83682</t>
+          <t>https://www.rokomari.com/book/author/59079</t>
         </is>
       </c>
     </row>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/84525</t>
+          <t>https://www.rokomari.com/book/author/65595</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/69006</t>
+          <t>https://www.rokomari.com/book/author/63002</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/21096</t>
+          <t>https://www.rokomari.com/book/author/38181</t>
         </is>
       </c>
     </row>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13984</t>
+          <t>https://www.rokomari.com/book/author/45826</t>
         </is>
       </c>
     </row>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/33062</t>
+          <t>https://www.rokomari.com/book/author/67430</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/79261</t>
+          <t>https://www.rokomari.com/book/author/29952</t>
         </is>
       </c>
     </row>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9948</t>
+          <t>https://www.rokomari.com/book/author/16774</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13439</t>
+          <t>https://www.rokomari.com/book/author/39407</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/59451</t>
+          <t>https://www.rokomari.com/book/author/23777</t>
         </is>
       </c>
     </row>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/4941</t>
+          <t>https://www.rokomari.com/book/author/30046</t>
         </is>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/3581</t>
+          <t>https://www.rokomari.com/book/author/34909</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/49134</t>
+          <t>https://www.rokomari.com/book/author/38549</t>
         </is>
       </c>
     </row>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/1769</t>
+          <t>https://www.rokomari.com/book/author/38550</t>
         </is>
       </c>
     </row>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86068</t>
+          <t>https://www.rokomari.com/book/author/38552</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/14262</t>
+          <t>https://www.rokomari.com/book/author/58326</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/82362</t>
+          <t>https://www.rokomari.com/book/author/56614</t>
         </is>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/10634</t>
+          <t>https://www.rokomari.com/book/author/63016</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/83750</t>
+          <t>https://www.rokomari.com/book/author/48097</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/39897</t>
+          <t>https://www.rokomari.com/book/author/37059</t>
         </is>
       </c>
     </row>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/26625</t>
+          <t>https://www.rokomari.com/book/author/56040</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/58161</t>
+          <t>https://www.rokomari.com/book/author/26962</t>
         </is>
       </c>
     </row>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81889</t>
+          <t>https://www.rokomari.com/book/author/64249</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/5175</t>
+          <t>https://www.rokomari.com/book/author/19015</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/72396</t>
+          <t>https://www.rokomari.com/book/author/74701</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/24161</t>
+          <t>https://www.rokomari.com/book/author/36941</t>
         </is>
       </c>
     </row>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/76124</t>
+          <t>https://www.rokomari.com/book/author/36213</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/53378</t>
+          <t>https://www.rokomari.com/book/author/59281</t>
         </is>
       </c>
     </row>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/69668</t>
+          <t>https://www.rokomari.com/book/author/47434</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/82421</t>
+          <t>https://www.rokomari.com/book/author/34967</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/47097</t>
+          <t>https://www.rokomari.com/book/author/3491</t>
         </is>
       </c>
     </row>
@@ -5596,7 +5596,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/79139</t>
+          <t>https://www.rokomari.com/book/author/29155</t>
         </is>
       </c>
     </row>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86690</t>
+          <t>https://www.rokomari.com/book/author/41131</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22865</t>
+          <t>https://www.rokomari.com/book/author/26170</t>
         </is>
       </c>
     </row>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/12388</t>
+          <t>https://www.rokomari.com/book/author/51274</t>
         </is>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86011</t>
+          <t>https://www.rokomari.com/book/author/26321</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/41369</t>
+          <t>https://www.rokomari.com/book/author/32977</t>
         </is>
       </c>
     </row>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/12602</t>
+          <t>https://www.rokomari.com/book/author/75573</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/32403</t>
+          <t>https://www.rokomari.com/book/author/36311</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77327</t>
+          <t>https://www.rokomari.com/book/author/38492</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/21198</t>
+          <t>https://www.rokomari.com/book/author/73994</t>
         </is>
       </c>
     </row>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77903</t>
+          <t>https://www.rokomari.com/book/author/314</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/71510</t>
+          <t>https://www.rokomari.com/book/author/72222</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/84417</t>
+          <t>https://www.rokomari.com/book/author/49677</t>
         </is>
       </c>
     </row>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/3107</t>
+          <t>https://www.rokomari.com/book/author/12866</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85047</t>
+          <t>https://www.rokomari.com/book/author/21847</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/58900</t>
+          <t>https://www.rokomari.com/book/author/5818</t>
         </is>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86449</t>
+          <t>https://www.rokomari.com/book/author/26750</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/48162</t>
+          <t>https://www.rokomari.com/book/author/52484</t>
         </is>
       </c>
     </row>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/69821</t>
+          <t>https://www.rokomari.com/book/author/3333</t>
         </is>
       </c>
     </row>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/1619</t>
+          <t>https://www.rokomari.com/book/author/50438</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/4968</t>
+          <t>https://www.rokomari.com/book/author/7558</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22332</t>
+          <t>https://www.rokomari.com/book/author/52485</t>
         </is>
       </c>
     </row>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85967</t>
+          <t>https://www.rokomari.com/book/author/79132</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/71455</t>
+          <t>https://www.rokomari.com/book/author/50439</t>
         </is>
       </c>
     </row>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/25560</t>
+          <t>https://www.rokomari.com/book/author/34212</t>
         </is>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/84627</t>
+          <t>https://www.rokomari.com/book/author/50784</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/79483</t>
+          <t>https://www.rokomari.com/book/author/71743</t>
         </is>
       </c>
     </row>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/68822</t>
+          <t>https://www.rokomari.com/book/author/52486</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/27994</t>
+          <t>https://www.rokomari.com/book/author/15882</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/56863</t>
+          <t>https://www.rokomari.com/book/author/49115</t>
         </is>
       </c>
     </row>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/84109</t>
+          <t>https://www.rokomari.com/book/author/15062</t>
         </is>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/69968</t>
+          <t>https://www.rokomari.com/book/author/12869</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/47494</t>
+          <t>https://www.rokomari.com/book/author/82630</t>
         </is>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/55075</t>
+          <t>https://www.rokomari.com/book/author/68829</t>
         </is>
       </c>
     </row>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85877</t>
+          <t>https://www.rokomari.com/book/author/81742</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/48529</t>
+          <t>https://www.rokomari.com/book/author/80157</t>
         </is>
       </c>
     </row>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/65900</t>
+          <t>https://www.rokomari.com/book/author/61891</t>
         </is>
       </c>
     </row>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/68023</t>
+          <t>https://www.rokomari.com/book/author/70524</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77256</t>
+          <t>https://www.rokomari.com/book/author/77752</t>
         </is>
       </c>
     </row>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/29171</t>
+          <t>https://www.rokomari.com/book/author/24704</t>
         </is>
       </c>
     </row>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13891</t>
+          <t>https://www.rokomari.com/book/author/86827</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/78641</t>
+          <t>https://www.rokomari.com/book/author/24684</t>
         </is>
       </c>
     </row>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7342</t>
+          <t>https://www.rokomari.com/book/author/87403</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/31886</t>
+          <t>https://www.rokomari.com/book/author/83925</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/40833</t>
+          <t>https://www.rokomari.com/book/author/7334</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/3410</t>
+          <t>https://www.rokomari.com/book/author/404</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85083</t>
+          <t>https://www.rokomari.com/book/author/38751</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/82629</t>
+          <t>https://www.rokomari.com/book/author/38752</t>
         </is>
       </c>
     </row>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/37001</t>
+          <t>https://www.rokomari.com/book/author/51688</t>
         </is>
       </c>
     </row>
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/3113</t>
+          <t>https://www.rokomari.com/book/author/10333</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81302</t>
+          <t>https://www.rokomari.com/book/author/40249</t>
         </is>
       </c>
     </row>
@@ -6106,7 +6106,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/76626</t>
+          <t>https://www.rokomari.com/book/author/78565</t>
         </is>
       </c>
     </row>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/20429</t>
+          <t>https://www.rokomari.com/book/author/73833</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6126,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/41413</t>
+          <t>https://www.rokomari.com/book/author/15016</t>
         </is>
       </c>
     </row>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/75296</t>
+          <t>https://www.rokomari.com/book/author/25420</t>
         </is>
       </c>
     </row>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/12506</t>
+          <t>https://www.rokomari.com/book/author/68057</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6156,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/28155</t>
+          <t>https://www.rokomari.com/book/author/84572</t>
         </is>
       </c>
     </row>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/54854</t>
+          <t>https://www.rokomari.com/book/author/36320</t>
         </is>
       </c>
     </row>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/35284</t>
+          <t>https://www.rokomari.com/book/author/6693</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/21101</t>
+          <t>https://www.rokomari.com/book/author/1705</t>
         </is>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/39936</t>
+          <t>https://www.rokomari.com/book/author/31989</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/72854</t>
+          <t>https://www.rokomari.com/book/author/7338</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/15596</t>
+          <t>https://www.rokomari.com/book/author/5965</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/55042</t>
+          <t>https://www.rokomari.com/book/author/5737</t>
         </is>
       </c>
     </row>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/21724</t>
+          <t>https://www.rokomari.com/book/author/76103</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/21263</t>
+          <t>https://www.rokomari.com/book/author/75024</t>
         </is>
       </c>
     </row>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/53930</t>
+          <t>https://www.rokomari.com/book/author/71507</t>
         </is>
       </c>
     </row>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/10903</t>
+          <t>https://www.rokomari.com/book/author/80116</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/1231</t>
+          <t>https://www.rokomari.com/book/author/82043</t>
         </is>
       </c>
     </row>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/19136</t>
+          <t>https://www.rokomari.com/book/author/76842</t>
         </is>
       </c>
     </row>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7745</t>
+          <t>https://www.rokomari.com/book/author/82428</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6306,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/3655</t>
+          <t>https://www.rokomari.com/book/author/53100</t>
         </is>
       </c>
     </row>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/5575</t>
+          <t>https://www.rokomari.com/book/author/13111</t>
         </is>
       </c>
     </row>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/8571</t>
+          <t>https://www.rokomari.com/book/author/10529</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6336,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/4525</t>
+          <t>https://www.rokomari.com/book/author/22159</t>
         </is>
       </c>
     </row>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85088</t>
+          <t>https://www.rokomari.com/book/author/51687</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/32874</t>
+          <t>https://www.rokomari.com/book/author/40037</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/37888</t>
+          <t>https://www.rokomari.com/book/author/79404</t>
         </is>
       </c>
     </row>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86877</t>
+          <t>https://www.rokomari.com/book/author/33567</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/25553</t>
+          <t>https://www.rokomari.com/book/author/5354</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86941</t>
+          <t>https://www.rokomari.com/book/author/24563</t>
         </is>
       </c>
     </row>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/40170</t>
+          <t>https://www.rokomari.com/book/author/20748</t>
         </is>
       </c>
     </row>
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/69463</t>
+          <t>https://www.rokomari.com/book/author/22598</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/24952</t>
+          <t>https://www.rokomari.com/book/author/52385</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/24912</t>
+          <t>https://www.rokomari.com/book/author/69207</t>
         </is>
       </c>
     </row>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7222</t>
+          <t>https://www.rokomari.com/book/author/60803</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/84477</t>
+          <t>https://www.rokomari.com/book/author/75881</t>
         </is>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2576</t>
+          <t>https://www.rokomari.com/book/author/54651</t>
         </is>
       </c>
     </row>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/47555</t>
+          <t>https://www.rokomari.com/book/author/54965</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7877</t>
+          <t>https://www.rokomari.com/book/author/27078</t>
         </is>
       </c>
     </row>
@@ -6496,7 +6496,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/60750</t>
+          <t>https://www.rokomari.com/book/author/78656</t>
         </is>
       </c>
     </row>
@@ -6506,7 +6506,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/34796</t>
+          <t>https://www.rokomari.com/book/author/60694</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/41412</t>
+          <t>https://www.rokomari.com/book/author/58362</t>
         </is>
       </c>
     </row>
@@ -6526,7 +6526,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/26242</t>
+          <t>https://www.rokomari.com/book/author/12868</t>
         </is>
       </c>
     </row>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/26634</t>
+          <t>https://www.rokomari.com/book/author/51091</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81527</t>
+          <t>https://www.rokomari.com/book/author/24551</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/20264</t>
+          <t>https://www.rokomari.com/book/author/40409</t>
         </is>
       </c>
     </row>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/54638</t>
+          <t>https://www.rokomari.com/book/author/11937</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/64770</t>
+          <t>https://www.rokomari.com/book/author/33570</t>
         </is>
       </c>
     </row>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13098</t>
+          <t>https://www.rokomari.com/book/author/46595</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/6191</t>
+          <t>https://www.rokomari.com/book/author/72166</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/76377</t>
+          <t>https://www.rokomari.com/book/author/77523</t>
         </is>
       </c>
     </row>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/30644</t>
+          <t>https://www.rokomari.com/book/author/69711</t>
         </is>
       </c>
     </row>
@@ -6626,7 +6626,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/66371</t>
+          <t>https://www.rokomari.com/book/author/69576</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/71757</t>
+          <t>https://www.rokomari.com/book/author/80283</t>
         </is>
       </c>
     </row>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/80015</t>
+          <t>https://www.rokomari.com/book/author/21116</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/48500</t>
+          <t>https://www.rokomari.com/book/author/40173</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/47662</t>
+          <t>https://www.rokomari.com/book/author/25996</t>
         </is>
       </c>
     </row>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22617</t>
+          <t>https://www.rokomari.com/book/author/12586</t>
         </is>
       </c>
     </row>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/66359</t>
+          <t>https://www.rokomari.com/book/author/77087</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6696,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2872</t>
+          <t>https://www.rokomari.com/book/author/67738</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81789</t>
+          <t>https://www.rokomari.com/book/author/79431</t>
         </is>
       </c>
     </row>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/4736</t>
+          <t>https://www.rokomari.com/book/author/68950</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/79443</t>
+          <t>https://www.rokomari.com/book/author/76604</t>
         </is>
       </c>
     </row>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/6158</t>
+          <t>https://www.rokomari.com/book/author/42493</t>
         </is>
       </c>
     </row>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2259</t>
+          <t>https://www.rokomari.com/book/author/74787</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86688</t>
+          <t>https://www.rokomari.com/book/author/34699</t>
         </is>
       </c>
     </row>
@@ -6766,7 +6766,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/30708</t>
+          <t>https://www.rokomari.com/book/author/51090</t>
         </is>
       </c>
     </row>
@@ -6776,7 +6776,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/3771</t>
+          <t>https://www.rokomari.com/book/author/51993</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6786,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13507</t>
+          <t>https://www.rokomari.com/book/author/54208</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/72189</t>
+          <t>https://www.rokomari.com/book/author/72715</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/82593</t>
+          <t>https://www.rokomari.com/book/author/84725</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/26693</t>
+          <t>https://www.rokomari.com/book/author/52386</t>
         </is>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/39615</t>
+          <t>https://www.rokomari.com/book/author/54339</t>
         </is>
       </c>
     </row>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/10911</t>
+          <t>https://www.rokomari.com/book/author/11974</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/72172</t>
+          <t>https://www.rokomari.com/book/author/10331</t>
         </is>
       </c>
     </row>
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/11218</t>
+          <t>https://www.rokomari.com/book/author/48304</t>
         </is>
       </c>
     </row>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/69060</t>
+          <t>https://www.rokomari.com/book/author/25022</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85895</t>
+          <t>https://www.rokomari.com/book/author/35039</t>
         </is>
       </c>
     </row>
@@ -6886,7 +6886,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/83638</t>
+          <t>https://www.rokomari.com/book/author/81959</t>
         </is>
       </c>
     </row>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/30457</t>
+          <t>https://www.rokomari.com/book/author/52478</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/28325</t>
+          <t>https://www.rokomari.com/book/author/55104</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/44217</t>
+          <t>https://www.rokomari.com/book/author/52482</t>
         </is>
       </c>
     </row>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/42518</t>
+          <t>https://www.rokomari.com/book/author/2105</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/4854</t>
+          <t>https://www.rokomari.com/book/author/67739</t>
         </is>
       </c>
     </row>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/25447</t>
+          <t>https://www.rokomari.com/book/author/36540</t>
         </is>
       </c>
     </row>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86393</t>
+          <t>https://www.rokomari.com/book/author/68246</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/74076</t>
+          <t>https://www.rokomari.com/book/author/28992</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81652</t>
+          <t>https://www.rokomari.com/book/author/51044</t>
         </is>
       </c>
     </row>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/25448</t>
+          <t>https://www.rokomari.com/book/author/28638</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81384</t>
+          <t>https://www.rokomari.com/book/author/52483</t>
         </is>
       </c>
     </row>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/82827</t>
+          <t>https://www.rokomari.com/book/author/29476</t>
         </is>
       </c>
     </row>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2138</t>
+          <t>https://www.rokomari.com/book/author/64570</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7026,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/70139</t>
+          <t>https://www.rokomari.com/book/author/50094</t>
         </is>
       </c>
     </row>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/58858</t>
+          <t>https://www.rokomari.com/book/author/24605</t>
         </is>
       </c>
     </row>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/84760</t>
+          <t>https://www.rokomari.com/book/author/52387</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77477</t>
+          <t>https://www.rokomari.com/book/author/50437</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/83370</t>
+          <t>https://www.rokomari.com/book/author/9752</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/71013</t>
+          <t>https://www.rokomari.com/book/author/39854</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7086,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13900</t>
+          <t>https://www.rokomari.com/book/author/48070</t>
         </is>
       </c>
     </row>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/11747</t>
+          <t>https://www.rokomari.com/book/author/54232</t>
         </is>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/1456</t>
+          <t>https://www.rokomari.com/book/author/71926</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/76050</t>
+          <t>https://www.rokomari.com/book/author/80585</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/80465</t>
+          <t>https://www.rokomari.com/book/author/78573</t>
         </is>
       </c>
     </row>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/87227</t>
+          <t>https://www.rokomari.com/book/author/41354</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7975</t>
+          <t>https://www.rokomari.com/book/author/69269</t>
         </is>
       </c>
     </row>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/21283</t>
+          <t>https://www.rokomari.com/book/author/58192</t>
         </is>
       </c>
     </row>
@@ -7166,7 +7166,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/70073</t>
+          <t>https://www.rokomari.com/book/author/77238</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/83834</t>
+          <t>https://www.rokomari.com/book/author/77221</t>
         </is>
       </c>
     </row>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/4377</t>
+          <t>https://www.rokomari.com/book/author/6248</t>
         </is>
       </c>
     </row>
@@ -7196,7 +7196,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/5541</t>
+          <t>https://www.rokomari.com/book/author/836</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/12538</t>
+          <t>https://www.rokomari.com/book/author/77005</t>
         </is>
       </c>
     </row>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/8217</t>
+          <t>https://www.rokomari.com/book/author/2309</t>
         </is>
       </c>
     </row>
@@ -7226,7 +7226,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/10000</t>
+          <t>https://www.rokomari.com/book/author/32105</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/72534</t>
+          <t>https://www.rokomari.com/book/author/43303</t>
         </is>
       </c>
     </row>
@@ -7246,7 +7246,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/12629</t>
+          <t>https://www.rokomari.com/book/author/37811</t>
         </is>
       </c>
     </row>
@@ -7256,7 +7256,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/6247</t>
+          <t>https://www.rokomari.com/book/author/5661</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7266,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/14045</t>
+          <t>https://www.rokomari.com/book/author/48238</t>
         </is>
       </c>
     </row>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/1652</t>
+          <t>https://www.rokomari.com/book/author/31657</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/3399</t>
+          <t>https://www.rokomari.com/book/author/35999</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7296,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/87123</t>
+          <t>https://www.rokomari.com/book/author/15319</t>
         </is>
       </c>
     </row>
@@ -7306,7 +7306,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/25954</t>
+          <t>https://www.rokomari.com/book/author/27437</t>
         </is>
       </c>
     </row>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/12936</t>
+          <t>https://www.rokomari.com/book/author/60420</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7326,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/83153</t>
+          <t>https://www.rokomari.com/book/author/25646</t>
         </is>
       </c>
     </row>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/6202</t>
+          <t>https://www.rokomari.com/book/author/42548</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22642</t>
+          <t>https://www.rokomari.com/book/author/50290</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7356,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/40</t>
+          <t>https://www.rokomari.com/book/author/59611</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/79321</t>
+          <t>https://www.rokomari.com/book/author/61266</t>
         </is>
       </c>
     </row>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81470</t>
+          <t>https://www.rokomari.com/book/author/5032</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7386,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/66901</t>
+          <t>https://www.rokomari.com/book/author/40610</t>
         </is>
       </c>
     </row>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81481</t>
+          <t>https://www.rokomari.com/book/author/13118</t>
         </is>
       </c>
     </row>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/58606</t>
+          <t>https://www.rokomari.com/book/author/26083</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/69249</t>
+          <t>https://www.rokomari.com/book/author/60269</t>
         </is>
       </c>
     </row>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/31905</t>
+          <t>https://www.rokomari.com/book/author/2666</t>
         </is>
       </c>
     </row>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/62500</t>
+          <t>https://www.rokomari.com/book/author/70785</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/87674</t>
+          <t>https://www.rokomari.com/book/author/76485</t>
         </is>
       </c>
     </row>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/71413</t>
+          <t>https://www.rokomari.com/book/author/39916</t>
         </is>
       </c>
     </row>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/22091</t>
+          <t>https://www.rokomari.com/book/author/38754</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/40813</t>
+          <t>https://www.rokomari.com/book/author/74601</t>
         </is>
       </c>
     </row>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/84089</t>
+          <t>https://www.rokomari.com/book/author/58655</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/77053</t>
+          <t>https://www.rokomari.com/book/author/33104</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/32988</t>
+          <t>https://www.rokomari.com/book/author/4783</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/71829</t>
+          <t>https://www.rokomari.com/book/author/67447</t>
         </is>
       </c>
     </row>
@@ -7526,7 +7526,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/32287</t>
+          <t>https://www.rokomari.com/book/author/47869</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7536,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/71920</t>
+          <t>https://www.rokomari.com/book/author/20246</t>
         </is>
       </c>
     </row>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/44854</t>
+          <t>https://www.rokomari.com/book/author/2766</t>
         </is>
       </c>
     </row>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/83969</t>
+          <t>https://www.rokomari.com/book/author/22580</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/63503</t>
+          <t>https://www.rokomari.com/book/author/80067</t>
         </is>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/70548</t>
+          <t>https://www.rokomari.com/book/author/8858</t>
         </is>
       </c>
     </row>
@@ -7586,7 +7586,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/47037</t>
+          <t>https://www.rokomari.com/book/author/7230</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/3228</t>
+          <t>https://www.rokomari.com/book/author/58587</t>
         </is>
       </c>
     </row>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/32758</t>
+          <t>https://www.rokomari.com/book/author/21326</t>
         </is>
       </c>
     </row>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9014</t>
+          <t>https://www.rokomari.com/book/author/6895</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/80384</t>
+          <t>https://www.rokomari.com/book/author/2878</t>
         </is>
       </c>
     </row>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/13495</t>
+          <t>https://www.rokomari.com/book/author/20520</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86387</t>
+          <t>https://www.rokomari.com/book/author/1841</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7656,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/6020</t>
+          <t>https://www.rokomari.com/book/author/85928</t>
         </is>
       </c>
     </row>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/73017</t>
+          <t>https://www.rokomari.com/book/author/9054</t>
         </is>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/8001</t>
+          <t>https://www.rokomari.com/book/author/71074</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7686,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85249</t>
+          <t>https://www.rokomari.com/book/author/78766</t>
         </is>
       </c>
     </row>
@@ -7696,7 +7696,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/76521</t>
+          <t>https://www.rokomari.com/book/author/7476</t>
         </is>
       </c>
     </row>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/11009</t>
+          <t>https://www.rokomari.com/book/author/77158</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/26468</t>
+          <t>https://www.rokomari.com/book/author/25180</t>
         </is>
       </c>
     </row>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/85285</t>
+          <t>https://www.rokomari.com/book/author/78626</t>
         </is>
       </c>
     </row>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9737</t>
+          <t>https://www.rokomari.com/book/author/80137</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/40512</t>
+          <t>https://www.rokomari.com/book/author/225</t>
         </is>
       </c>
     </row>
@@ -7756,7 +7756,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/38069</t>
+          <t>https://www.rokomari.com/book/author/9045</t>
         </is>
       </c>
     </row>
@@ -7766,7 +7766,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/26633</t>
+          <t>https://www.rokomari.com/book/author/20342</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/20216</t>
+          <t>https://www.rokomari.com/book/author/8780</t>
         </is>
       </c>
     </row>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/41516</t>
+          <t>https://www.rokomari.com/book/author/5860</t>
         </is>
       </c>
     </row>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/48293</t>
+          <t>https://www.rokomari.com/book/author/6226</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/48373</t>
+          <t>https://www.rokomari.com/book/author/82991</t>
         </is>
       </c>
     </row>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/11026</t>
+          <t>https://www.rokomari.com/book/author/74289</t>
         </is>
       </c>
     </row>
@@ -7826,7 +7826,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/31107</t>
+          <t>https://www.rokomari.com/book/author/22180</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/84982</t>
+          <t>https://www.rokomari.com/book/author/12542</t>
         </is>
       </c>
     </row>
@@ -7846,7 +7846,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/31290</t>
+          <t>https://www.rokomari.com/book/author/80080</t>
         </is>
       </c>
     </row>
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/68559</t>
+          <t>https://www.rokomari.com/book/author/71633</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7866,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/48317</t>
+          <t>https://www.rokomari.com/book/author/84518</t>
         </is>
       </c>
     </row>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/52057</t>
+          <t>https://www.rokomari.com/book/author/58881</t>
         </is>
       </c>
     </row>
@@ -7886,7 +7886,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/10116</t>
+          <t>https://www.rokomari.com/book/author/48193</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/47436</t>
+          <t>https://www.rokomari.com/book/author/14152</t>
         </is>
       </c>
     </row>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/4450</t>
+          <t>https://www.rokomari.com/book/author/87</t>
         </is>
       </c>
     </row>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/84614</t>
+          <t>https://www.rokomari.com/book/author/6081</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7926,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/700</t>
+          <t>https://www.rokomari.com/book/author/7641</t>
         </is>
       </c>
     </row>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/81936</t>
+          <t>https://www.rokomari.com/book/author/25706</t>
         </is>
       </c>
     </row>
@@ -7946,7 +7946,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/27007</t>
+          <t>https://www.rokomari.com/book/author/25958</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/35106</t>
+          <t>https://www.rokomari.com/book/author/79047</t>
         </is>
       </c>
     </row>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/2989</t>
+          <t>https://www.rokomari.com/book/author/48195</t>
         </is>
       </c>
     </row>
@@ -7976,7 +7976,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/78223</t>
+          <t>https://www.rokomari.com/book/author/39867</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/84802</t>
+          <t>https://www.rokomari.com/book/author/86084</t>
         </is>
       </c>
     </row>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/78957</t>
+          <t>https://www.rokomari.com/book/author/60060</t>
         </is>
       </c>
     </row>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/26469</t>
+          <t>https://www.rokomari.com/book/author/31456</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/54874</t>
+          <t>https://www.rokomari.com/book/author/71980</t>
         </is>
       </c>
     </row>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/35462</t>
+          <t>https://www.rokomari.com/book/author/78068</t>
         </is>
       </c>
     </row>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/70652</t>
+          <t>https://www.rokomari.com/book/author/58909</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/74152</t>
+          <t>https://www.rokomari.com/book/author/29108</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/86467</t>
+          <t>https://www.rokomari.com/book/author/78531</t>
         </is>
       </c>
     </row>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/21043</t>
+          <t>https://www.rokomari.com/book/author/79115</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/9106</t>
+          <t>https://www.rokomari.com/book/author/81067</t>
         </is>
       </c>
     </row>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/7584</t>
+          <t>https://www.rokomari.com/book/author/10087</t>
         </is>
       </c>
     </row>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/6319</t>
+          <t>https://www.rokomari.com/book/author/61378</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/80467</t>
+          <t>https://www.rokomari.com/book/author/74253</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/47467</t>
+          <t>https://www.rokomari.com/book/author/26040</t>
         </is>
       </c>
     </row>
@@ -8126,7 +8126,937 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/author/76331</t>
+          <t>https://www.rokomari.com/book/author/39901</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/61096</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/20691</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/60092</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/4378</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/40267</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/76892</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/81689</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/25106</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/60041</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/60433</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/69325</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/7461</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/61248</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/83609</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/83610</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/3827</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/39963</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/42731</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/3071</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/57618</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/23953</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/56758</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/43713</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/34564</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/50505</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/65902</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/37162</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/67740</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/20228</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/49274</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/38330</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/64059</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/78432</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/24552</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/52124</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/46987</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/65903</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/87804</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/4495</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/49075</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/67741</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/24937</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/49164</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/45114</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/39108</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/66880</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/80823</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/68430</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/78928</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/50016</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/20389</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/7939</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/69819</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/65904</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/48438</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/50859</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/54497</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/45397</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/66122</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/55481</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/67181</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/80613</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/12870</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/48483</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/54498</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/55482</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/49166</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/77277</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/73997</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/54499</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/52575</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/11603</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/74875</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/42810</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/2065</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/48603</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/45640</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/38020</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/57927</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/36146</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/29372</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/67519</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/72543</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/31604</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/29606</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/29760</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/19208</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/28936</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/40749</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/34173</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/34363</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/63424</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/author/45400</t>
         </is>
       </c>
     </row>
